--- a/trilateration/Seentimes-F81F32F89FB4.xlsx
+++ b/trilateration/Seentimes-F81F32F89FB4.xlsx
@@ -14,7 +14,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2020-12-02T19:48:05.921Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T19:49:05.922Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T19:55:05.841Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T19:56:05.855Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T19:57:05.832Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T19:58:05.842Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:04:11.572Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:10:11.612Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:16:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:17:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:18:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:19:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:20:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:21:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:22:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:23:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:24:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:25:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:26:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:27:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:28:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:29:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:30:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:31:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:32:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:33:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:34:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:35:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:36:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:37:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:38:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:39:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:40:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:41:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:42:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:43:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:44:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:45:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:46:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:47:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:48:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:49:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:50:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:51:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:52:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:53:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:54:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:55:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:56:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:57:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:58:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T20:59:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:00:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:01:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:02:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:03:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:04:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:05:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:06:11.651Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:07:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:08:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:09:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:10:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:11:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:12:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:13:11.652Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:17:06.032Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:30:49.562Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:31:49.561Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:32:49.564Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:33:49.562Z</t>
+  </si>
+  <si>
+    <t>2020-12-02T21:37:49.131Z</t>
+  </si>
   <si>
     <t>Total number of observations</t>
   </si>
@@ -348,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -359,7 +575,583 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <f>SUM(B1:B0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f>SUM(B1:B72)</f>
         <v>0</v>
       </c>
     </row>
